--- a/biology/Zoologie/Gibbon_de_Müller/Gibbon_de_Müller.xlsx
+++ b/biology/Zoologie/Gibbon_de_Müller/Gibbon_de_Müller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gibbon_de_M%C3%BCller</t>
+          <t>Gibbon_de_Müller</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hylobates muelleri
 Le Gibbon de Müller, Hylobates muelleri, est une espèce de primates de la famille des Hylobatidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gibbon_de_M%C3%BCller</t>
+          <t>Gibbon_de_Müller</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gibbon_de_M%C3%BCller</t>
+          <t>Gibbon_de_Müller</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,9 +552,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espérance de vie de cette espèce est généralement estimée à une quarantaine d'années[2]. Lulu, un gibbon de Müller du zoo de Lyon, considéré comme le plus vieux individu connu de son espèce, meurt à l'âge de 64 ans en décembre 2019[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espérance de vie de cette espèce est généralement estimée à une quarantaine d'années. Lulu, un gibbon de Müller du zoo de Lyon, considéré comme le plus vieux individu connu de son espèce, meurt à l'âge de 64 ans en décembre 2019.
 </t>
         </is>
       </c>
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gibbon_de_M%C3%BCller</t>
+          <t>Gibbon_de_Müller</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,6 +586,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -577,7 +595,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gibbon_de_M%C3%BCller</t>
+          <t>Gibbon_de_Müller</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -595,11 +613,13 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique de l'île de Bornéo, où elle est présente à Kalimantan (région indonésienne), à Sabah et à Sarawak (États malaisiens), ainsi qu'au Brunei.
-La sous-espèce H.m. muelleri est présente dans le sud du Kalimantan (partie indonésienne de l'île de Bornéo). H.m funereus est présente au Brunei, au Kalimantan et dans le Sabah et le Sarawak (états malaisiens au nord de Bornéo). Enfin, H.m. abbotti est présente au Kalimantan et au Sarawak[4].
-Cette espèce vit dans la forêt tropicale humide primaire et secondaire[4].
+La sous-espèce H.m. muelleri est présente dans le sud du Kalimantan (partie indonésienne de l'île de Bornéo). H.m funereus est présente au Brunei, au Kalimantan et dans le Sabah et le Sarawak (états malaisiens au nord de Bornéo). Enfin, H.m. abbotti est présente au Kalimantan et au Sarawak.
+Cette espèce vit dans la forêt tropicale humide primaire et secondaire.
 </t>
         </is>
       </c>
@@ -610,7 +630,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gibbon_de_M%C3%BCller</t>
+          <t>Gibbon_de_Müller</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -630,8 +650,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Liste des sous-espèces
-Selon Mammal Species of the World (version 3, 2005)  (1 octobre 2017)[5] :
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (1 octobre 2017) :
 sous-espèce Hylobates muelleri abbotti
 sous-espèce Hylobates muelleri funereus
 sous-espèce Hylobates muelleri muelleri</t>
